--- a/inscriptions/EpiDoc.xlsx
+++ b/inscriptions/EpiDoc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="257">
   <si>
     <t>K-P</t>
   </si>
@@ -654,9 +654,6 @@
     <t>&lt;g type=”staurogram/&gt;</t>
   </si>
   <si>
-    <t>Where unicode symbols exist, these could be used?</t>
-  </si>
-  <si>
     <t>U+101A0 (staurogram or ‘tau-rho’).</t>
   </si>
   <si>
@@ -736,9 +733,6 @@
   </si>
   <si>
     <t>&lt;g type=”interpunct”&gt;·&lt;/g&gt;</t>
-  </si>
-  <si>
-    <t>U+2766 ❦ floral heart</t>
   </si>
   <si>
     <t>U+2627 ☧ Chi Rho</t>
@@ -816,12 +810,24 @@
   <si>
     <t>Numeral in words?</t>
   </si>
+  <si>
+    <t>((denarius))</t>
+  </si>
+  <si>
+    <t>U+10196 denarius</t>
+  </si>
+  <si>
+    <t>&lt;g type="denarius"/&gt;</t>
+  </si>
+  <si>
+    <t>U+2766 ❦ floral heart Where unicode symbols exist, these could be used?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1176,13 +1182,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.42578125" bestFit="1" customWidth="1"/>
@@ -1192,7 +1198,7 @@
     <col min="6" max="6" width="255.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -1225,10 +1231,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1244,7 +1250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -1260,7 +1266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1275,10 +1281,10 @@
         <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>20</v>
@@ -1294,7 +1300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1310,7 +1316,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1328,7 +1334,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1344,7 +1350,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -1364,7 +1370,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -1380,7 +1386,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1396,7 +1402,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -1412,7 +1418,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
@@ -1420,7 +1426,7 @@
         <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
@@ -1428,7 +1434,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -1440,11 +1446,11 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
@@ -1460,7 +1466,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -1468,7 +1474,7 @@
         <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
@@ -1476,7 +1482,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>65</v>
@@ -1492,7 +1498,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
@@ -1508,7 +1514,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>73</v>
       </c>
@@ -1524,7 +1530,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>77</v>
       </c>
@@ -1532,7 +1538,7 @@
         <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
@@ -1540,7 +1546,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="30">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>80</v>
@@ -1548,11 +1554,11 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
@@ -1568,7 +1574,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>81</v>
       </c>
@@ -1582,7 +1588,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>87</v>
       </c>
@@ -1598,7 +1604,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>90</v>
@@ -1612,7 +1618,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>93</v>
@@ -1628,7 +1634,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>97</v>
       </c>
@@ -1644,7 +1650,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>101</v>
       </c>
@@ -1660,7 +1666,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>101</v>
       </c>
@@ -1668,17 +1674,17 @@
         <v>105</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>107</v>
@@ -1692,7 +1698,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>110</v>
       </c>
@@ -1708,7 +1714,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>114</v>
       </c>
@@ -1724,7 +1730,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="30">
       <c r="A34" s="1" t="s">
         <v>118</v>
       </c>
@@ -1736,11 +1742,11 @@
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="30">
       <c r="A35" s="1" t="s">
         <v>118</v>
       </c>
@@ -1752,11 +1758,11 @@
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>123</v>
       </c>
@@ -1772,7 +1778,7 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>127</v>
       </c>
@@ -1788,7 +1794,7 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>131</v>
       </c>
@@ -1796,7 +1802,7 @@
         <v>132</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
@@ -1806,7 +1812,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="30">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>135</v>
@@ -1819,10 +1825,10 @@
         <v>136</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>137</v>
       </c>
@@ -1838,7 +1844,7 @@
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>141</v>
@@ -1852,7 +1858,7 @@
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>144</v>
@@ -1868,7 +1874,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>148</v>
       </c>
@@ -1884,7 +1890,7 @@
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>152</v>
       </c>
@@ -1900,7 +1906,7 @@
       </c>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>156</v>
@@ -1916,7 +1922,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>159</v>
       </c>
@@ -1924,7 +1930,7 @@
         <v>160</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
@@ -1932,7 +1938,7 @@
       </c>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="30">
       <c r="A47" s="1" t="s">
         <v>162</v>
       </c>
@@ -1944,11 +1950,11 @@
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="30">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>165</v>
@@ -1961,15 +1967,15 @@
         <v>167</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>169</v>
@@ -1980,7 +1986,7 @@
       </c>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>171</v>
       </c>
@@ -1988,7 +1994,7 @@
         <v>172</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
@@ -1996,11 +2002,11 @@
       </c>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
@@ -2008,11 +2014,11 @@
       </c>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
@@ -2020,7 +2026,7 @@
       </c>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>176</v>
       </c>
@@ -2028,7 +2034,7 @@
         <v>177</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
@@ -2036,7 +2042,7 @@
       </c>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>179</v>
       </c>
@@ -2054,7 +2060,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>45</v>
       </c>
@@ -2062,7 +2068,7 @@
         <v>184</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
@@ -2072,7 +2078,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
         <v>45</v>
       </c>
@@ -2080,17 +2086,17 @@
         <v>187</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
         <v>191</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
@@ -2104,7 +2110,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
@@ -2116,7 +2122,7 @@
       </c>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
@@ -2128,14 +2134,14 @@
       </c>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
         <v>45</v>
       </c>
@@ -2151,7 +2157,7 @@
       </c>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
         <v>45</v>
       </c>
@@ -2169,7 +2175,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
         <v>45</v>
       </c>
@@ -2187,10 +2193,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2199,7 +2205,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
         <v>45</v>
       </c>
@@ -2211,13 +2217,13 @@
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
@@ -2228,10 +2234,10 @@
         <v>210</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
@@ -2242,96 +2248,100 @@
         <v>211</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>214</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F68" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2339,7 +2349,7 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2347,7 +2357,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2355,7 +2365,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2363,7 +2373,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2371,7 +2381,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2379,7 +2389,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2387,7 +2397,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2395,7 +2405,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2403,7 +2413,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2411,13 +2421,21 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2431,7 +2449,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2443,7 +2461,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
